--- a/va_facility_data_2025-02-20/Port Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Port%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Port Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Port%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8f171cad1beb48b09aef294669a46f44"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfddccc98cec942f8aa15e4eb38e64c56"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2ada4de656d046dbbaf3342dfd716be3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1fefb4d29c864e8581c68ba1801726d4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5c7c043337e648d48bb80cb9917cc34f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf763dd4897154a43bf873f79c96839d6"/>
   </x:sheets>
 </x:workbook>
 </file>
